--- a/biology/Botanique/Eduardo_Ladislao_Holmberg/Eduardo_Ladislao_Holmberg.xlsx
+++ b/biology/Botanique/Eduardo_Ladislao_Holmberg/Eduardo_Ladislao_Holmberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduardo Ladislao Holmberg est un botaniste, un  zoologiste, un géologue et un écrivain argentin, né le 27 juin 1852 à Buenos Aires et mort le 4 novembre 1937 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études à l'âge de 6 ans à l'école de don Francisco Reynolds qui lui apprend l'anglais et le français. Il s'inscrit, après l'école primaire, à l'université de médecine, il obtient son titre de docteur en 1880 mais n'exercera jamais.
 Holmberg préfère se consacrer à l'histoire naturelle et voyage en Patagonie en 1872 et dans le sud de l'Argentine en 1877. Il commence à étudier les araignées à partir de 1879 en collaboration avec la Société scientifique argentine (es). Il organise plusieurs expéditions scientifiques et fait paraître des publications consacrés à la flore et la faune de son pays. Il fait également paraître une étude phytogéographique Flora de la Repùblica Argentina. Il dirige le jardin zoologique de Buenos Aires de 1888 à 1904. Holmberg fonde avec Enrique Lynch Arribálzaga, El naturalista argentino, première revue d'histoire naturelle du pays.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Viaje maravilloso del señor Nic-Nac (1975)
 La pipa de Hoffman (1876)
